--- a/Presentations/LTERttImages/lineChartEachProfile.xlsx
+++ b/Presentations/LTERttImages/lineChartEachProfile.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27710"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -17,29 +17,28 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Column1">[2]recordUnq!#REF!</definedName>
+    <definedName name="Column1">[1]recordUnq!#REF!</definedName>
     <definedName name="Concept">#REF!</definedName>
-    <definedName name="conceptEnd">[2]recordUnq!#REF!</definedName>
+    <definedName name="conceptEnd">[1]recordUnq!#REF!</definedName>
     <definedName name="Dialects">#REF!</definedName>
-    <definedName name="DRxrange">OFFSET([2]RecommendationsAnalysis!$A$2,0,0,[2]recordUnq!$R$17)</definedName>
+    <definedName name="DRxrange">OFFSET([1]RecommendationsAnalysis!$A$2,0,0,[1]recordUnq!$R$17)</definedName>
     <definedName name="DryadDataFile">#REF!</definedName>
     <definedName name="DryadDataPackage">#REF!</definedName>
-    <definedName name="DRyrange1">OFFSET([2]RecommendationsAnalysis!$B$2,0,0,[2]recordUnq!$R$17)</definedName>
-    <definedName name="DRyrange2">OFFSET([2]RecommendationsAnalysis!$C$2,0,0,[2]recordUnq!$R$17)</definedName>
-    <definedName name="DRyrange3">OFFSET([2]RecommendationsAnalysis!$D$2,0,0,[2]recordUnq!$R$17)</definedName>
-    <definedName name="FSxrange">OFFSET([2]FieldSummary_Exists!$E$4,0,0,[2]FieldSummary_Exists!$R$1)</definedName>
+    <definedName name="DRyrange1">OFFSET([1]RecommendationsAnalysis!$B$2,0,0,[1]recordUnq!$R$17)</definedName>
+    <definedName name="DRyrange2">OFFSET([1]RecommendationsAnalysis!$C$2,0,0,[1]recordUnq!$R$17)</definedName>
+    <definedName name="DRyrange3">OFFSET([1]RecommendationsAnalysis!$D$2,0,0,[1]recordUnq!$R$17)</definedName>
+    <definedName name="FSxrange">OFFSET([1]FieldSummary_Exists!$E$4,0,0,[1]FieldSummary_Exists!$R$1)</definedName>
     <definedName name="Mercury">#REF!</definedName>
-    <definedName name="SIGxrange">[2]recordUnq!$X$1,OFFSET([2]recordUnq!$X$1,[2]recordUnq!$R$22,0,[2]recordUnq!$R$23-1)</definedName>
-    <definedName name="SIGyrange">[2]recordUnq!$Y$1,OFFSET([2]recordUnq!$Y$1,[2]recordUnq!$R$22,0,[2]recordUnq!$R$23-1)</definedName>
-    <definedName name="xrange">OFFSET([2]recordUnq!$U$1,0,0,[2]recordUnq!$R$22)</definedName>
-    <definedName name="xValD1">OFFSET([2]recordUnq!$U$1,0,0,[2]recordUnq!$R$22)</definedName>
-    <definedName name="yrange">OFFSET([2]recordUnq!$T$1,0,0,[2]recordUnq!$R$22)</definedName>
-    <definedName name="yValD1">OFFSET([2]recordUnq!$T$1,0,0,[2]recordUnq!$R$22)</definedName>
+    <definedName name="SIGxrange">[1]recordUnq!$X$1,OFFSET([1]recordUnq!$X$1,[1]recordUnq!$R$22,0,[1]recordUnq!$R$23-1)</definedName>
+    <definedName name="SIGyrange">[1]recordUnq!$Y$1,OFFSET([1]recordUnq!$Y$1,[1]recordUnq!$R$22,0,[1]recordUnq!$R$23-1)</definedName>
+    <definedName name="xrange">OFFSET([1]recordUnq!$U$1,0,0,[1]recordUnq!$R$22)</definedName>
+    <definedName name="xValD1">OFFSET([1]recordUnq!$U$1,0,0,[1]recordUnq!$R$22)</definedName>
+    <definedName name="yrange">OFFSET([1]recordUnq!$T$1,0,0,[1]recordUnq!$R$22)</definedName>
+    <definedName name="yValD1">OFFSET([1]recordUnq!$T$1,0,0,[1]recordUnq!$R$22)</definedName>
   </definedNames>
-  <calcPr calcId="150000" calcMode="manual" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3108,11 +3107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="924298096"/>
-        <c:axId val="924167584"/>
+        <c:axId val="1637115552"/>
+        <c:axId val="1526559840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="924298096"/>
+        <c:axId val="1637115552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924167584"/>
+        <c:crossAx val="1526559840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3163,7 +3162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="924167584"/>
+        <c:axId val="1526559840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,7 +3213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924298096"/>
+        <c:crossAx val="1637115552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4617,11 +4616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="898181520"/>
-        <c:axId val="924876144"/>
+        <c:axId val="1637138624"/>
+        <c:axId val="1637141376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="898181520"/>
+        <c:axId val="1637138624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,7 +4663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924876144"/>
+        <c:crossAx val="1637141376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4672,7 +4671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="924876144"/>
+        <c:axId val="1637141376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -4723,7 +4722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898181520"/>
+        <c:crossAx val="1637138624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5347,11 +5346,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="925617376"/>
-        <c:axId val="925619152"/>
+        <c:axId val="1636267488"/>
+        <c:axId val="1636270752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="925617376"/>
+        <c:axId val="1636267488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,7 +5393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="925619152"/>
+        <c:crossAx val="1636270752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5402,7 +5401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="925619152"/>
+        <c:axId val="1636270752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5452,7 +5451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="925617376"/>
+        <c:crossAx val="1636267488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6178,11 +6177,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="959764480"/>
-        <c:axId val="959787296"/>
+        <c:axId val="1636307888"/>
+        <c:axId val="1636310640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="959764480"/>
+        <c:axId val="1636307888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6225,7 +6224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959787296"/>
+        <c:crossAx val="1636310640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6233,7 +6232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="959787296"/>
+        <c:axId val="1636310640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6283,7 +6282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959764480"/>
+        <c:crossAx val="1636307888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6673,11 +6672,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="926587456"/>
-        <c:axId val="923638624"/>
+        <c:axId val="1636332784"/>
+        <c:axId val="1636335536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="926587456"/>
+        <c:axId val="1636332784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6720,7 +6719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="923638624"/>
+        <c:crossAx val="1636335536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6728,7 +6727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="923638624"/>
+        <c:axId val="1636335536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6778,7 +6777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="926587456"/>
+        <c:crossAx val="1636332784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7280,11 +7279,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="926746480"/>
-        <c:axId val="960441344"/>
+        <c:axId val="1636365968"/>
+        <c:axId val="1636368720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="926746480"/>
+        <c:axId val="1636365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7327,7 +7326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="960441344"/>
+        <c:crossAx val="1636368720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7335,7 +7334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="960441344"/>
+        <c:axId val="1636368720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7385,7 +7384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="926746480"/>
+        <c:crossAx val="1636365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10999,1027 +10998,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Dashboard_2006"/>
-      <sheetName val="Dashboard_2007"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Dashboard_2008"/>
-      <sheetName val="Dashboard_2009"/>
-      <sheetName val="Dashboard_2010"/>
-      <sheetName val="Dashboard_2011"/>
-      <sheetName val="Dashboard_2012"/>
-      <sheetName val="Dashboard_2013"/>
-      <sheetName val="Dashboard_2014"/>
-      <sheetName val="Dashboard_2015"/>
-      <sheetName val="Dashboard_2016"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="E4">
-            <v>2006</v>
-          </cell>
-          <cell r="F4">
-            <v>2007</v>
-          </cell>
-          <cell r="G4">
-            <v>2008</v>
-          </cell>
-          <cell r="H4">
-            <v>2009</v>
-          </cell>
-          <cell r="I4">
-            <v>2010</v>
-          </cell>
-          <cell r="J4">
-            <v>2011</v>
-          </cell>
-          <cell r="K4">
-            <v>2012</v>
-          </cell>
-          <cell r="L4">
-            <v>2013</v>
-          </cell>
-          <cell r="M4">
-            <v>2014</v>
-          </cell>
-          <cell r="N4">
-            <v>2015</v>
-          </cell>
-          <cell r="O4">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>Resource Identifier</v>
-          </cell>
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>1</v>
-          </cell>
-          <cell r="G5">
-            <v>1</v>
-          </cell>
-          <cell r="H5">
-            <v>1</v>
-          </cell>
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-          <cell r="J5">
-            <v>1</v>
-          </cell>
-          <cell r="K5">
-            <v>1</v>
-          </cell>
-          <cell r="L5">
-            <v>1</v>
-          </cell>
-          <cell r="M5">
-            <v>1</v>
-          </cell>
-          <cell r="N5">
-            <v>1</v>
-          </cell>
-          <cell r="O5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>Resource Title</v>
-          </cell>
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-          <cell r="F6">
-            <v>1</v>
-          </cell>
-          <cell r="G6">
-            <v>1</v>
-          </cell>
-          <cell r="H6">
-            <v>1</v>
-          </cell>
-          <cell r="I6">
-            <v>1</v>
-          </cell>
-          <cell r="J6">
-            <v>1</v>
-          </cell>
-          <cell r="K6">
-            <v>1</v>
-          </cell>
-          <cell r="L6">
-            <v>1</v>
-          </cell>
-          <cell r="M6">
-            <v>1</v>
-          </cell>
-          <cell r="N6">
-            <v>1</v>
-          </cell>
-          <cell r="O6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>Author / Originator</v>
-          </cell>
-          <cell r="E7">
-            <v>1</v>
-          </cell>
-          <cell r="F7">
-            <v>1</v>
-          </cell>
-          <cell r="G7">
-            <v>1</v>
-          </cell>
-          <cell r="H7">
-            <v>1</v>
-          </cell>
-          <cell r="I7">
-            <v>1</v>
-          </cell>
-          <cell r="J7">
-            <v>1</v>
-          </cell>
-          <cell r="K7">
-            <v>1</v>
-          </cell>
-          <cell r="L7">
-            <v>1</v>
-          </cell>
-          <cell r="M7">
-            <v>1</v>
-          </cell>
-          <cell r="N7">
-            <v>1</v>
-          </cell>
-          <cell r="O7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Metadata Contact</v>
-          </cell>
-          <cell r="E8">
-            <v>0.70399999999999996</v>
-          </cell>
-          <cell r="F8">
-            <v>0.76800000000000002</v>
-          </cell>
-          <cell r="G8">
-            <v>0.59199999999999997</v>
-          </cell>
-          <cell r="H8">
-            <v>0.44400000000000001</v>
-          </cell>
-          <cell r="I8">
-            <v>0.46</v>
-          </cell>
-          <cell r="J8">
-            <v>0.32</v>
-          </cell>
-          <cell r="K8">
-            <v>0.81200000000000006</v>
-          </cell>
-          <cell r="L8">
-            <v>0.88</v>
-          </cell>
-          <cell r="M8">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="N8">
-            <v>0.94799999999999995</v>
-          </cell>
-          <cell r="O8">
-            <v>0.56799999999999995</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>Contributor Name</v>
-          </cell>
-          <cell r="E9">
-            <v>0.48399999999999999</v>
-          </cell>
-          <cell r="F9">
-            <v>0.73599999999999999</v>
-          </cell>
-          <cell r="G9">
-            <v>0.38400000000000001</v>
-          </cell>
-          <cell r="H9">
-            <v>0.45600000000000002</v>
-          </cell>
-          <cell r="I9">
-            <v>0.34</v>
-          </cell>
-          <cell r="J9">
-            <v>0.224</v>
-          </cell>
-          <cell r="K9">
-            <v>0.40799999999999997</v>
-          </cell>
-          <cell r="L9">
-            <v>0.80400000000000005</v>
-          </cell>
-          <cell r="M9">
-            <v>0.46400000000000002</v>
-          </cell>
-          <cell r="N9">
-            <v>0.1</v>
-          </cell>
-          <cell r="O9">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>Publisher</v>
-          </cell>
-          <cell r="E10">
-            <v>0.82</v>
-          </cell>
-          <cell r="F10">
-            <v>0.85199999999999998</v>
-          </cell>
-          <cell r="G10">
-            <v>0.60399999999999998</v>
-          </cell>
-          <cell r="H10">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="I10">
-            <v>0.58799999999999997</v>
-          </cell>
-          <cell r="J10">
-            <v>0.34399999999999997</v>
-          </cell>
-          <cell r="K10">
-            <v>0.52</v>
-          </cell>
-          <cell r="L10">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="M10">
-            <v>0.98</v>
-          </cell>
-          <cell r="N10">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="O10">
-            <v>0.68799999999999994</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11" t="str">
-            <v>Publication Date</v>
-          </cell>
-          <cell r="E11">
-            <v>0.77600000000000002</v>
-          </cell>
-          <cell r="F11">
-            <v>0.83199999999999996</v>
-          </cell>
-          <cell r="G11">
-            <v>0.88</v>
-          </cell>
-          <cell r="H11">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="I11">
-            <v>0.96799999999999997</v>
-          </cell>
-          <cell r="J11">
-            <v>0.88400000000000001</v>
-          </cell>
-          <cell r="K11">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="L11">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="M11">
-            <v>0.98399999999999999</v>
-          </cell>
-          <cell r="N11">
-            <v>0.99199999999999999</v>
-          </cell>
-          <cell r="O11">
-            <v>0.996</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12" t="str">
-            <v>Resource Contact</v>
-          </cell>
-          <cell r="E12">
-            <v>1</v>
-          </cell>
-          <cell r="F12">
-            <v>1</v>
-          </cell>
-          <cell r="G12">
-            <v>1</v>
-          </cell>
-          <cell r="H12">
-            <v>1</v>
-          </cell>
-          <cell r="I12">
-            <v>1</v>
-          </cell>
-          <cell r="J12">
-            <v>1</v>
-          </cell>
-          <cell r="K12">
-            <v>1</v>
-          </cell>
-          <cell r="L12">
-            <v>1</v>
-          </cell>
-          <cell r="M12">
-            <v>1</v>
-          </cell>
-          <cell r="N12">
-            <v>1</v>
-          </cell>
-          <cell r="O12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13" t="str">
-            <v>Abstract</v>
-          </cell>
-          <cell r="E13">
-            <v>1</v>
-          </cell>
-          <cell r="F13">
-            <v>0.94</v>
-          </cell>
-          <cell r="G13">
-            <v>1</v>
-          </cell>
-          <cell r="H13">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="I13">
-            <v>0.97599999999999998</v>
-          </cell>
-          <cell r="J13">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="K13">
-            <v>0.97599999999999998</v>
-          </cell>
-          <cell r="L13">
-            <v>1</v>
-          </cell>
-          <cell r="M13">
-            <v>0.996</v>
-          </cell>
-          <cell r="N13">
-            <v>1</v>
-          </cell>
-          <cell r="O13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14" t="str">
-            <v>Keyword</v>
-          </cell>
-          <cell r="E14">
-            <v>1</v>
-          </cell>
-          <cell r="F14">
-            <v>0.996</v>
-          </cell>
-          <cell r="G14">
-            <v>0.94</v>
-          </cell>
-          <cell r="H14">
-            <v>1</v>
-          </cell>
-          <cell r="I14">
-            <v>0.97199999999999998</v>
-          </cell>
-          <cell r="J14">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="K14">
-            <v>0.97199999999999998</v>
-          </cell>
-          <cell r="L14">
-            <v>1</v>
-          </cell>
-          <cell r="M14">
-            <v>0.98399999999999999</v>
-          </cell>
-          <cell r="N14">
-            <v>1</v>
-          </cell>
-          <cell r="O14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15" t="str">
-            <v>Resource Distribution</v>
-          </cell>
-          <cell r="E15">
-            <v>0.96799999999999997</v>
-          </cell>
-          <cell r="F15">
-            <v>0.96</v>
-          </cell>
-          <cell r="G15">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="H15">
-            <v>0.95199999999999996</v>
-          </cell>
-          <cell r="I15">
-            <v>0.82399999999999995</v>
-          </cell>
-          <cell r="J15">
-            <v>0.9</v>
-          </cell>
-          <cell r="K15">
-            <v>0.53200000000000003</v>
-          </cell>
-          <cell r="L15">
-            <v>0.96</v>
-          </cell>
-          <cell r="M15">
-            <v>0.9</v>
-          </cell>
-          <cell r="N15">
-            <v>0.152</v>
-          </cell>
-          <cell r="O15">
-            <v>0.94799999999999995</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16" t="str">
-            <v>Spatial Extent</v>
-          </cell>
-          <cell r="E16">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="F16">
-            <v>0.96</v>
-          </cell>
-          <cell r="G16">
-            <v>0.91600000000000004</v>
-          </cell>
-          <cell r="H16">
-            <v>0.99199999999999999</v>
-          </cell>
-          <cell r="I16">
-            <v>0.96</v>
-          </cell>
-          <cell r="J16">
-            <v>0.84399999999999997</v>
-          </cell>
-          <cell r="K16">
-            <v>0.95199999999999996</v>
-          </cell>
-          <cell r="L16">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="M16">
-            <v>0.95199999999999996</v>
-          </cell>
-          <cell r="N16">
-            <v>0.98399999999999999</v>
-          </cell>
-          <cell r="O16">
-            <v>0.91600000000000004</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17" t="str">
-            <v>Taxonomic Extent</v>
-          </cell>
-          <cell r="E17">
-            <v>4.8000000000000001E-2</v>
-          </cell>
-          <cell r="F17">
-            <v>0.18</v>
-          </cell>
-          <cell r="G17">
-            <v>9.1999999999999998E-2</v>
-          </cell>
-          <cell r="H17">
-            <v>9.1999999999999998E-2</v>
-          </cell>
-          <cell r="I17">
-            <v>4.8000000000000001E-2</v>
-          </cell>
-          <cell r="J17">
-            <v>0.04</v>
-          </cell>
-          <cell r="K17">
-            <v>0.19600000000000001</v>
-          </cell>
-          <cell r="L17">
-            <v>0.13600000000000001</v>
-          </cell>
-          <cell r="M17">
-            <v>0.14799999999999999</v>
-          </cell>
-          <cell r="N17">
-            <v>0.04</v>
-          </cell>
-          <cell r="O17">
-            <v>7.5999999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18" t="str">
-            <v>Temporal Extent</v>
-          </cell>
-          <cell r="E18">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="F18">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="G18">
-            <v>1</v>
-          </cell>
-          <cell r="H18">
-            <v>0.89600000000000002</v>
-          </cell>
-          <cell r="I18">
-            <v>0.80400000000000005</v>
-          </cell>
-          <cell r="J18">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="K18">
-            <v>0.99199999999999999</v>
-          </cell>
-          <cell r="L18">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="M18">
-            <v>0.98</v>
-          </cell>
-          <cell r="N18">
-            <v>0.996</v>
-          </cell>
-          <cell r="O18">
-            <v>0.91200000000000003</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19" t="str">
-            <v>Maintenance</v>
-          </cell>
-          <cell r="E19">
-            <v>0.71199999999999997</v>
-          </cell>
-          <cell r="F19">
-            <v>0.76</v>
-          </cell>
-          <cell r="G19">
-            <v>0.52800000000000002</v>
-          </cell>
-          <cell r="H19">
-            <v>0.432</v>
-          </cell>
-          <cell r="I19">
-            <v>0.34399999999999997</v>
-          </cell>
-          <cell r="J19">
-            <v>0.66400000000000003</v>
-          </cell>
-          <cell r="K19">
-            <v>0.40400000000000003</v>
-          </cell>
-          <cell r="L19">
-            <v>0.85599999999999998</v>
-          </cell>
-          <cell r="M19">
-            <v>0.88800000000000001</v>
-          </cell>
-          <cell r="N19">
-            <v>0.56000000000000005</v>
-          </cell>
-          <cell r="O19">
-            <v>0.60799999999999998</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20" t="str">
-            <v>Resource Use Constraints</v>
-          </cell>
-          <cell r="E20">
-            <v>1</v>
-          </cell>
-          <cell r="F20">
-            <v>0.99199999999999999</v>
-          </cell>
-          <cell r="G20">
-            <v>0.9</v>
-          </cell>
-          <cell r="H20">
-            <v>0.95199999999999996</v>
-          </cell>
-          <cell r="I20">
-            <v>0.70399999999999996</v>
-          </cell>
-          <cell r="J20">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="K20">
-            <v>0.624</v>
-          </cell>
-          <cell r="L20">
-            <v>1</v>
-          </cell>
-          <cell r="M20">
-            <v>0.99199999999999999</v>
-          </cell>
-          <cell r="N20">
-            <v>0.996</v>
-          </cell>
-          <cell r="O20">
-            <v>0.97199999999999998</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21" t="str">
-            <v>Process Step</v>
-          </cell>
-          <cell r="E21">
-            <v>0.81200000000000006</v>
-          </cell>
-          <cell r="F21">
-            <v>0.83599999999999997</v>
-          </cell>
-          <cell r="G21">
-            <v>0.65200000000000002</v>
-          </cell>
-          <cell r="H21">
-            <v>0.85199999999999998</v>
-          </cell>
-          <cell r="I21">
-            <v>0.51600000000000001</v>
-          </cell>
-          <cell r="J21">
-            <v>0.80800000000000005</v>
-          </cell>
-          <cell r="K21">
-            <v>0.88</v>
-          </cell>
-          <cell r="L21">
-            <v>0.97599999999999998</v>
-          </cell>
-          <cell r="M21">
-            <v>0.79200000000000004</v>
-          </cell>
-          <cell r="N21">
-            <v>0.996</v>
-          </cell>
-          <cell r="O21">
-            <v>0.92800000000000005</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>Project Description</v>
-          </cell>
-          <cell r="E22">
-            <v>0.252</v>
-          </cell>
-          <cell r="F22">
-            <v>0.628</v>
-          </cell>
-          <cell r="G22">
-            <v>0.432</v>
-          </cell>
-          <cell r="H22">
-            <v>0.54</v>
-          </cell>
-          <cell r="I22">
-            <v>0.27200000000000002</v>
-          </cell>
-          <cell r="J22">
-            <v>0.3</v>
-          </cell>
-          <cell r="K22">
-            <v>0.39600000000000002</v>
-          </cell>
-          <cell r="L22">
-            <v>0.84799999999999998</v>
-          </cell>
-          <cell r="M22">
-            <v>0.72</v>
-          </cell>
-          <cell r="N22">
-            <v>8.4000000000000005E-2</v>
-          </cell>
-          <cell r="O22">
-            <v>0.17199999999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23" t="str">
-            <v>Entity Type Definition</v>
-          </cell>
-          <cell r="E23">
-            <v>0.54</v>
-          </cell>
-          <cell r="F23">
-            <v>0.86</v>
-          </cell>
-          <cell r="G23">
-            <v>0.69599999999999995</v>
-          </cell>
-          <cell r="H23">
-            <v>0.81200000000000006</v>
-          </cell>
-          <cell r="I23">
-            <v>0.372</v>
-          </cell>
-          <cell r="J23">
-            <v>0.46400000000000002</v>
-          </cell>
-          <cell r="K23">
-            <v>0.47599999999999998</v>
-          </cell>
-          <cell r="L23">
-            <v>0.86399999999999999</v>
-          </cell>
-          <cell r="M23">
-            <v>0.58799999999999997</v>
-          </cell>
-          <cell r="N23">
-            <v>0.51600000000000001</v>
-          </cell>
-          <cell r="O23">
-            <v>0.89600000000000002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24" t="str">
-            <v>Attribute Definition</v>
-          </cell>
-          <cell r="E24">
-            <v>0.77200000000000002</v>
-          </cell>
-          <cell r="F24">
-            <v>0.9</v>
-          </cell>
-          <cell r="G24">
-            <v>0.71599999999999997</v>
-          </cell>
-          <cell r="H24">
-            <v>0.82</v>
-          </cell>
-          <cell r="I24">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J24">
-            <v>0.58399999999999996</v>
-          </cell>
-          <cell r="K24">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="L24">
-            <v>0.89200000000000002</v>
-          </cell>
-          <cell r="M24">
-            <v>0.59599999999999997</v>
-          </cell>
-          <cell r="N24">
-            <v>0.52</v>
-          </cell>
-          <cell r="O24">
-            <v>0.92400000000000004</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25" t="str">
-            <v>Resource Access Constraints</v>
-          </cell>
-          <cell r="E25">
-            <v>0.68400000000000005</v>
-          </cell>
-          <cell r="F25">
-            <v>0.68799999999999994</v>
-          </cell>
-          <cell r="G25">
-            <v>0.69599999999999995</v>
-          </cell>
-          <cell r="H25">
-            <v>0.80400000000000005</v>
-          </cell>
-          <cell r="I25">
-            <v>0.72799999999999998</v>
-          </cell>
-          <cell r="J25">
-            <v>0.91600000000000004</v>
-          </cell>
-          <cell r="K25">
-            <v>0.92</v>
-          </cell>
-          <cell r="L25">
-            <v>1</v>
-          </cell>
-          <cell r="M25">
-            <v>1</v>
-          </cell>
-          <cell r="N25">
-            <v>1</v>
-          </cell>
-          <cell r="O25">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26" t="str">
-            <v>Resource Format</v>
-          </cell>
-          <cell r="E26">
-            <v>0.76</v>
-          </cell>
-          <cell r="F26">
-            <v>0.876</v>
-          </cell>
-          <cell r="G26">
-            <v>0.61599999999999999</v>
-          </cell>
-          <cell r="H26">
-            <v>0.82</v>
-          </cell>
-          <cell r="I26">
-            <v>0.5</v>
-          </cell>
-          <cell r="J26">
-            <v>0.56000000000000005</v>
-          </cell>
-          <cell r="K26">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="L26">
-            <v>0.89200000000000002</v>
-          </cell>
-          <cell r="M26">
-            <v>0.59599999999999997</v>
-          </cell>
-          <cell r="N26">
-            <v>0.52</v>
-          </cell>
-          <cell r="O26">
-            <v>0.92400000000000004</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>Attribute List</v>
-          </cell>
-          <cell r="E27">
-            <v>0.77200000000000002</v>
-          </cell>
-          <cell r="F27">
-            <v>0.9</v>
-          </cell>
-          <cell r="G27">
-            <v>0.71599999999999997</v>
-          </cell>
-          <cell r="H27">
-            <v>0.82</v>
-          </cell>
-          <cell r="I27">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J27">
-            <v>0.58399999999999996</v>
-          </cell>
-          <cell r="K27">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="L27">
-            <v>0.89200000000000002</v>
-          </cell>
-          <cell r="M27">
-            <v>0.59599999999999997</v>
-          </cell>
-          <cell r="N27">
-            <v>0.52</v>
-          </cell>
-          <cell r="O27">
-            <v>0.92400000000000004</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>Attribute Constraints</v>
-          </cell>
-          <cell r="E28">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="F28">
-            <v>0.06</v>
-          </cell>
-          <cell r="G28">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="H28">
-            <v>0</v>
-          </cell>
-          <cell r="I28">
-            <v>0</v>
-          </cell>
-          <cell r="J28">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-          <cell r="K28">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="L28">
-            <v>0</v>
-          </cell>
-          <cell r="M28">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-          <cell r="N28">
-            <v>0</v>
-          </cell>
-          <cell r="O28">
-            <v>3.2000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>Resource Quality Description</v>
-          </cell>
-          <cell r="E29">
-            <v>0.20799999999999999</v>
-          </cell>
-          <cell r="F29">
-            <v>0.112</v>
-          </cell>
-          <cell r="G29">
-            <v>0.27200000000000002</v>
-          </cell>
-          <cell r="H29">
-            <v>0.08</v>
-          </cell>
-          <cell r="I29">
-            <v>4.8000000000000001E-2</v>
-          </cell>
-          <cell r="J29">
-            <v>0.2</v>
-          </cell>
-          <cell r="K29">
-            <v>8.7999999999999995E-2</v>
-          </cell>
-          <cell r="L29">
-            <v>0.29199999999999998</v>
-          </cell>
-          <cell r="M29">
-            <v>0.13600000000000001</v>
-          </cell>
-          <cell r="N29">
-            <v>0.04</v>
-          </cell>
-          <cell r="O29">
-            <v>8.7999999999999995E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="data"/>
       <sheetName val="recordUnq"/>
       <sheetName val="dialectContains"/>
@@ -12033,15 +11011,11 @@
       <sheetName val="ConceptOccurance%"/>
       <sheetName val="FieldSummary_Missing"/>
       <sheetName val="ConceptGuidanceLinks"/>
-      <sheetName val="LTER_2016_RAD"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="1">
-          <cell r="S1" t="str">
-            <v>EML Signature Scores</v>
-          </cell>
           <cell r="T1" t="str">
             <v>Total Records</v>
           </cell>
@@ -12051,8 +11025,8 @@
           <cell r="X1" t="str">
             <v>Total Records</v>
           </cell>
-          <cell r="Y1" t="e">
-            <v>#N/A</v>
+          <cell r="Y1">
+            <v>250</v>
           </cell>
         </row>
         <row r="17">
@@ -12067,18 +11041,13 @@
         </row>
         <row r="23">
           <cell r="R23">
-            <v>41</v>
+            <v>44</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>LTER_Completeness</v>
-          </cell>
-        </row>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="2">
           <cell r="A2" t="str">
             <v>LTER_Identification</v>
@@ -12091,11 +11060,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1">
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
         <row r="1">
           <cell r="R1">
             <v>25</v>
@@ -12107,10 +11076,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12381,12 +11349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" activeCellId="1" sqref="D4:O4 D27:O29"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Presentations/LTERttImages/lineChartEachProfile.xlsx
+++ b/Presentations/LTERttImages/lineChartEachProfile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -3107,11 +3107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1637115552"/>
-        <c:axId val="1526559840"/>
+        <c:axId val="1561121312"/>
+        <c:axId val="1560914560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1637115552"/>
+        <c:axId val="1561121312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3154,7 +3154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1526559840"/>
+        <c:crossAx val="1560914560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3162,7 +3162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1526559840"/>
+        <c:axId val="1560914560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,7 +3213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1637115552"/>
+        <c:crossAx val="1561121312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4616,11 +4616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1637138624"/>
-        <c:axId val="1637141376"/>
+        <c:axId val="1561013296"/>
+        <c:axId val="1603374048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1637138624"/>
+        <c:axId val="1561013296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4663,7 +4663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1637141376"/>
+        <c:crossAx val="1603374048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4671,7 +4671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1637141376"/>
+        <c:axId val="1603374048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -4692,6 +4692,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4722,7 +4723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1637138624"/>
+        <c:crossAx val="1561013296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5346,11 +5347,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1636267488"/>
-        <c:axId val="1636270752"/>
+        <c:axId val="1561074272"/>
+        <c:axId val="1561076560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1636267488"/>
+        <c:axId val="1561074272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5393,7 +5394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636270752"/>
+        <c:crossAx val="1561076560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5401,7 +5402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1636270752"/>
+        <c:axId val="1561076560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5451,7 +5452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636267488"/>
+        <c:crossAx val="1561074272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6177,11 +6178,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1636307888"/>
-        <c:axId val="1636310640"/>
+        <c:axId val="-819282720"/>
+        <c:axId val="-819112784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1636307888"/>
+        <c:axId val="-819282720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6224,7 +6225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636310640"/>
+        <c:crossAx val="-819112784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6232,7 +6233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1636310640"/>
+        <c:axId val="-819112784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6252,6 +6253,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6282,7 +6284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636307888"/>
+        <c:crossAx val="-819282720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6672,11 +6674,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1636332784"/>
-        <c:axId val="1636335536"/>
+        <c:axId val="1606897728"/>
+        <c:axId val="1522883184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1636332784"/>
+        <c:axId val="1606897728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6719,7 +6721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636335536"/>
+        <c:crossAx val="1522883184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6727,7 +6729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1636335536"/>
+        <c:axId val="1522883184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6777,7 +6779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636332784"/>
+        <c:crossAx val="1606897728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7279,11 +7281,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1636365968"/>
-        <c:axId val="1636368720"/>
+        <c:axId val="-819757280"/>
+        <c:axId val="-819754960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1636365968"/>
+        <c:axId val="-819757280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7326,7 +7328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636368720"/>
+        <c:crossAx val="-819754960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7334,7 +7336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1636368720"/>
+        <c:axId val="-819754960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7384,7 +7386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636365968"/>
+        <c:crossAx val="-819757280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/Presentations/LTERttImages/lineChartEachProfile.xlsx
+++ b/Presentations/LTERttImages/lineChartEachProfile.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="AllSpirals" sheetId="2" r:id="rId2"/>
+    <sheet name="IdentificationConcepts" sheetId="3" r:id="rId3"/>
+    <sheet name="DiscoveryConcepts" sheetId="4" r:id="rId4"/>
+    <sheet name="Evaluation Concepts" sheetId="5" r:id="rId5"/>
+    <sheet name="AccessConcepts" sheetId="6" r:id="rId6"/>
+    <sheet name="IntegrationConcepts" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Column1">[1]recordUnq!#REF!</definedName>
@@ -258,7 +263,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$5</c:f>
+              <c:f>data!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -281,7 +286,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -323,7 +328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$O$5</c:f>
+              <c:f>data!$E$5:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -370,7 +375,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$6</c:f>
+              <c:f>data!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -393,7 +398,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -435,7 +440,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$6:$O$6</c:f>
+              <c:f>data!$E$6:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -482,7 +487,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$7</c:f>
+              <c:f>data!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -505,7 +510,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -547,7 +552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$7:$O$7</c:f>
+              <c:f>data!$E$7:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -594,7 +599,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$8</c:f>
+              <c:f>data!$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -617,7 +622,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -659,7 +664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$8:$O$8</c:f>
+              <c:f>data!$E$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -706,7 +711,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$9</c:f>
+              <c:f>data!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -729,7 +734,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -771,7 +776,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$9:$O$9</c:f>
+              <c:f>data!$E$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -818,7 +823,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$10</c:f>
+              <c:f>data!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -841,7 +846,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -883,7 +888,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$10:$O$10</c:f>
+              <c:f>data!$E$10:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -930,7 +935,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$11</c:f>
+              <c:f>data!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -955,7 +960,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -997,7 +1002,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$11:$O$11</c:f>
+              <c:f>data!$E$11:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1044,7 +1049,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$12</c:f>
+              <c:f>data!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1069,7 +1074,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1111,7 +1116,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$12:$O$12</c:f>
+              <c:f>data!$E$12:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1158,7 +1163,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$13</c:f>
+              <c:f>data!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1183,7 +1188,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1225,7 +1230,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$13:$O$13</c:f>
+              <c:f>data!$E$13:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1272,7 +1277,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$14</c:f>
+              <c:f>data!$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1297,7 +1302,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1339,7 +1344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$14:$O$14</c:f>
+              <c:f>data!$E$14:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1386,7 +1391,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$15</c:f>
+              <c:f>data!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1411,7 +1416,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1453,7 +1458,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$15:$O$15</c:f>
+              <c:f>data!$E$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1500,7 +1505,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$16</c:f>
+              <c:f>data!$D$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1525,7 +1530,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1567,7 +1572,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$16:$O$16</c:f>
+              <c:f>data!$E$16:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1614,7 +1619,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$17</c:f>
+              <c:f>data!$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1640,7 +1645,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1682,7 +1687,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$17:$O$17</c:f>
+              <c:f>data!$E$17:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1729,7 +1734,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$18</c:f>
+              <c:f>data!$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1755,7 +1760,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1797,7 +1802,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$18:$O$18</c:f>
+              <c:f>data!$E$18:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1844,7 +1849,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$19</c:f>
+              <c:f>data!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1870,7 +1875,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1912,7 +1917,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$19:$O$19</c:f>
+              <c:f>data!$E$19:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1959,7 +1964,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$20</c:f>
+              <c:f>data!$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1985,7 +1990,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2027,7 +2032,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$20:$O$20</c:f>
+              <c:f>data!$E$20:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2074,7 +2079,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$21</c:f>
+              <c:f>data!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2100,7 +2105,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2142,7 +2147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$21:$O$21</c:f>
+              <c:f>data!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2189,7 +2194,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$22</c:f>
+              <c:f>data!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2215,7 +2220,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2257,7 +2262,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$22:$O$22</c:f>
+              <c:f>data!$E$22:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2304,7 +2309,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$23</c:f>
+              <c:f>data!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2329,7 +2334,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2371,7 +2376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$23:$O$23</c:f>
+              <c:f>data!$E$23:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2418,7 +2423,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$24</c:f>
+              <c:f>data!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2443,7 +2448,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2485,7 +2490,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$24:$O$24</c:f>
+              <c:f>data!$E$24:$O$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2532,7 +2537,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$25</c:f>
+              <c:f>data!$D$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2557,7 +2562,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2599,7 +2604,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$25:$O$25</c:f>
+              <c:f>data!$E$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2646,7 +2651,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$26</c:f>
+              <c:f>data!$D$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2671,7 +2676,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2713,7 +2718,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$26:$O$26</c:f>
+              <c:f>data!$E$26:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2760,7 +2765,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$27</c:f>
+              <c:f>data!$D$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2785,7 +2790,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2827,7 +2832,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$27:$O$27</c:f>
+              <c:f>data!$E$27:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2874,7 +2879,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$28</c:f>
+              <c:f>data!$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2899,7 +2904,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2941,7 +2946,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$28:$O$28</c:f>
+              <c:f>data!$E$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2988,7 +2993,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$29</c:f>
+              <c:f>data!$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3014,7 +3019,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3056,7 +3061,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$29:$O$29</c:f>
+              <c:f>data!$E$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3107,11 +3112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1561121312"/>
-        <c:axId val="1560914560"/>
+        <c:axId val="-1166618288"/>
+        <c:axId val="-1166616080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1561121312"/>
+        <c:axId val="-1166618288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3154,7 +3159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1560914560"/>
+        <c:crossAx val="-1166616080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3162,7 +3167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1560914560"/>
+        <c:axId val="-1166616080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,7 +3218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1561121312"/>
+        <c:crossAx val="-1166618288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3370,7 +3375,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$5</c:f>
+              <c:f>data!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3393,7 +3398,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3435,7 +3440,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$O$5</c:f>
+              <c:f>data!$E$5:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3482,7 +3487,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$6</c:f>
+              <c:f>data!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3505,7 +3510,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3547,7 +3552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$6:$O$6</c:f>
+              <c:f>data!$E$6:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3594,7 +3599,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$7</c:f>
+              <c:f>data!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3617,7 +3622,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3659,7 +3664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$7:$O$7</c:f>
+              <c:f>data!$E$7:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3706,7 +3711,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$8</c:f>
+              <c:f>data!$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3729,7 +3734,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3771,7 +3776,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$8:$O$8</c:f>
+              <c:f>data!$E$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3818,7 +3823,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$9</c:f>
+              <c:f>data!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3841,7 +3846,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3883,7 +3888,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$9:$O$9</c:f>
+              <c:f>data!$E$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3930,7 +3935,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$10</c:f>
+              <c:f>data!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3953,7 +3958,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3995,7 +4000,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$10:$O$10</c:f>
+              <c:f>data!$E$10:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4042,7 +4047,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$11</c:f>
+              <c:f>data!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4067,7 +4072,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4109,7 +4114,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$11:$O$11</c:f>
+              <c:f>data!$E$11:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4156,7 +4161,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$12</c:f>
+              <c:f>data!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4181,7 +4186,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4223,7 +4228,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$12:$O$12</c:f>
+              <c:f>data!$E$12:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4270,7 +4275,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$13</c:f>
+              <c:f>data!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4295,7 +4300,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4337,7 +4342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$13:$O$13</c:f>
+              <c:f>data!$E$13:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4384,7 +4389,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$14</c:f>
+              <c:f>data!$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4409,7 +4414,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4451,7 +4456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$14:$O$14</c:f>
+              <c:f>data!$E$14:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4498,7 +4503,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$15</c:f>
+              <c:f>data!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4523,7 +4528,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4565,7 +4570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$15:$O$15</c:f>
+              <c:f>data!$E$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4616,11 +4621,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1561013296"/>
-        <c:axId val="1603374048"/>
+        <c:axId val="-1075620144"/>
+        <c:axId val="-1075618784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1561013296"/>
+        <c:axId val="-1075620144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4663,7 +4668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1603374048"/>
+        <c:crossAx val="-1075618784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4671,7 +4676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1603374048"/>
+        <c:axId val="-1075618784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -4723,7 +4728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1561013296"/>
+        <c:crossAx val="-1075620144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -4806,11 +4811,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4895,7 +4895,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$16</c:f>
+              <c:f>data!$D$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4918,7 +4918,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4960,7 +4960,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$16:$O$16</c:f>
+              <c:f>data!$E$16:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5007,7 +5007,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$17</c:f>
+              <c:f>data!$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5030,7 +5030,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5072,7 +5072,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$17:$O$17</c:f>
+              <c:f>data!$E$17:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5119,7 +5119,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$18</c:f>
+              <c:f>data!$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5142,7 +5142,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5184,7 +5184,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$18:$O$18</c:f>
+              <c:f>data!$E$18:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5231,7 +5231,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$19</c:f>
+              <c:f>data!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5254,7 +5254,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5296,7 +5296,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$19:$O$19</c:f>
+              <c:f>data!$E$19:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5347,11 +5347,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1561074272"/>
-        <c:axId val="1561076560"/>
+        <c:axId val="-1166319152"/>
+        <c:axId val="-1166316592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1561074272"/>
+        <c:axId val="-1166319152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,7 +5394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1561076560"/>
+        <c:crossAx val="-1166316592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5402,7 +5402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1561076560"/>
+        <c:axId val="-1166316592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5452,7 +5452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1561074272"/>
+        <c:crossAx val="-1166319152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5525,11 +5525,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5614,7 +5609,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$20</c:f>
+              <c:f>data!$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5637,7 +5632,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5679,7 +5674,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$20:$O$20</c:f>
+              <c:f>data!$E$20:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5726,7 +5721,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$21</c:f>
+              <c:f>data!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5749,7 +5744,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5791,7 +5786,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$21:$O$21</c:f>
+              <c:f>data!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5838,7 +5833,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$22</c:f>
+              <c:f>data!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5861,7 +5856,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5903,7 +5898,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$22:$O$22</c:f>
+              <c:f>data!$E$22:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5950,7 +5945,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$23</c:f>
+              <c:f>data!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5973,7 +5968,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6015,7 +6010,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$23:$O$23</c:f>
+              <c:f>data!$E$23:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6062,7 +6057,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$24</c:f>
+              <c:f>data!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6085,7 +6080,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6127,7 +6122,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$24:$O$24</c:f>
+              <c:f>data!$E$24:$O$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6178,11 +6173,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-819282720"/>
-        <c:axId val="-819112784"/>
+        <c:axId val="-1035121312"/>
+        <c:axId val="-1105652352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-819282720"/>
+        <c:axId val="-1035121312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6225,7 +6220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-819112784"/>
+        <c:crossAx val="-1105652352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6233,7 +6228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-819112784"/>
+        <c:axId val="-1105652352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6284,7 +6279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-819282720"/>
+        <c:crossAx val="-1035121312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6357,11 +6352,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6446,7 +6436,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$25</c:f>
+              <c:f>data!$D$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6469,7 +6459,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6511,7 +6501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$25:$O$25</c:f>
+              <c:f>data!$E$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6558,7 +6548,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$26</c:f>
+              <c:f>data!$D$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6581,7 +6571,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6623,7 +6613,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$26:$O$26</c:f>
+              <c:f>data!$E$26:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6674,11 +6664,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1606897728"/>
-        <c:axId val="1522883184"/>
+        <c:axId val="-996799728"/>
+        <c:axId val="-996166128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1606897728"/>
+        <c:axId val="-996799728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6721,7 +6711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522883184"/>
+        <c:crossAx val="-996166128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6729,7 +6719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1522883184"/>
+        <c:axId val="-996166128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6779,7 +6769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1606897728"/>
+        <c:crossAx val="-996799728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6852,11 +6842,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6941,7 +6926,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$27</c:f>
+              <c:f>data!$D$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6964,7 +6949,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7006,7 +6991,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$27:$O$27</c:f>
+              <c:f>data!$E$27:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7053,7 +7038,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$28</c:f>
+              <c:f>data!$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7076,7 +7061,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7118,7 +7103,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$28:$O$28</c:f>
+              <c:f>data!$E$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7165,7 +7150,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$29</c:f>
+              <c:f>data!$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7188,7 +7173,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7230,7 +7215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$29:$O$29</c:f>
+              <c:f>data!$E$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7281,11 +7266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-819757280"/>
-        <c:axId val="-819754960"/>
+        <c:axId val="-1099691936"/>
+        <c:axId val="-1099632320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-819757280"/>
+        <c:axId val="-1099691936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7328,7 +7313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-819754960"/>
+        <c:crossAx val="-1099632320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7336,7 +7321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-819754960"/>
+        <c:axId val="-1099632320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7386,7 +7371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-819757280"/>
+        <c:crossAx val="-1099691936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7459,11 +7444,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -10807,7 +10787,62 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10818,7 +10853,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671719" cy="6290469"/>
+    <xdr:ext cx="8684054" cy="6292793"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -10843,23 +10878,15 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8684054" cy="6292793"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10872,24 +10899,21 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8684054" cy="6292793"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10897,29 +10921,26 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8684054" cy="6292793"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10927,29 +10948,26 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8684054" cy="6292793"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10957,29 +10975,26 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8684054" cy="6292793"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10987,12 +11002,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12433,6 +12448,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Presentations/LTERttImages/lineChartEachProfile.xlsx
+++ b/Presentations/LTERttImages/lineChartEachProfile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="yrange">OFFSET([1]recordUnq!$T$1,0,0,[1]recordUnq!$R$22)</definedName>
     <definedName name="yValD1">OFFSET([1]recordUnq!$T$1,0,0,[1]recordUnq!$R$22)</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3112,11 +3112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1166618288"/>
-        <c:axId val="-1166616080"/>
+        <c:axId val="897262784"/>
+        <c:axId val="897265264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1166618288"/>
+        <c:axId val="897262784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,7 +3159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166616080"/>
+        <c:crossAx val="897265264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3167,7 +3167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1166616080"/>
+        <c:axId val="897265264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3218,7 +3218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166618288"/>
+        <c:crossAx val="897262784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3334,7 +3334,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4621,11 +4620,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1075620144"/>
-        <c:axId val="-1075618784"/>
+        <c:axId val="897318352"/>
+        <c:axId val="897321104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1075620144"/>
+        <c:axId val="897318352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4668,7 +4667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1075618784"/>
+        <c:crossAx val="897321104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4676,7 +4675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1075618784"/>
+        <c:axId val="897321104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -4728,7 +4727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1075620144"/>
+        <c:crossAx val="897318352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -4854,7 +4853,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5347,11 +5345,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1166319152"/>
-        <c:axId val="-1166316592"/>
+        <c:axId val="897354448"/>
+        <c:axId val="897357712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1166319152"/>
+        <c:axId val="897354448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,7 +5392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166316592"/>
+        <c:crossAx val="897357712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5402,7 +5400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1166316592"/>
+        <c:axId val="897357712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5452,7 +5450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166319152"/>
+        <c:crossAx val="897354448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5466,7 +5464,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5568,7 +5565,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6173,11 +6169,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1035121312"/>
-        <c:axId val="-1105652352"/>
+        <c:axId val="894177680"/>
+        <c:axId val="894180432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1035121312"/>
+        <c:axId val="894177680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6220,7 +6216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1105652352"/>
+        <c:crossAx val="894180432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6228,7 +6224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1105652352"/>
+        <c:axId val="894180432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6279,7 +6275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1035121312"/>
+        <c:crossAx val="894177680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6293,7 +6289,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6395,7 +6390,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6664,11 +6658,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-996799728"/>
-        <c:axId val="-996166128"/>
+        <c:axId val="894216864"/>
+        <c:axId val="894219616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-996799728"/>
+        <c:axId val="894216864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6711,7 +6705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-996166128"/>
+        <c:crossAx val="894219616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6719,7 +6713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-996166128"/>
+        <c:axId val="894219616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6769,7 +6763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-996799728"/>
+        <c:crossAx val="894216864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6783,7 +6777,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6885,7 +6878,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7266,11 +7258,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1099691936"/>
-        <c:axId val="-1099632320"/>
+        <c:axId val="894252464"/>
+        <c:axId val="894255216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1099691936"/>
+        <c:axId val="894252464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7313,7 +7305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1099632320"/>
+        <c:crossAx val="894255216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7321,7 +7313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1099632320"/>
+        <c:axId val="894255216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7371,7 +7363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1099691936"/>
+        <c:crossAx val="894252464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7385,7 +7377,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10787,7 +10778,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10853,7 +10844,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8684054" cy="6292793"/>
+    <xdr:ext cx="8669769" cy="6283931"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>

--- a/Presentations/LTERttImages/lineChartEachProfile.xlsx
+++ b/Presentations/LTERttImages/lineChartEachProfile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -3328,12 +3328,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Identification</a:t>
+              <a:rPr lang="en-US" sz="4000"/>
+              <a:t>Concept Completeness in LTER Identification</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3365,349 +3366,23 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.135937762586293"/>
+          <c:y val="0.227987067330943"/>
+          <c:w val="0.845019054140889"/>
+          <c:h val="0.477879690276676"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Resource Identifier</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$E$5:$O$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Resource Title</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$E$6:$O$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$D$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Author / Originator</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$E$7:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>data!$D$8</c:f>
@@ -3720,7 +3395,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -3819,7 +3494,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>data!$D$9</c:f>
@@ -3832,7 +3507,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -3931,7 +3606,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>data!$D$10</c:f>
@@ -3944,7 +3619,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -4043,7 +3718,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>data!$D$11</c:f>
@@ -4056,7 +3731,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -4156,122 +3831,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$D$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Resource Contact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$E$12:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>data!$D$13</c:f>
@@ -4284,7 +3845,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -4385,7 +3946,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>data!$D$14</c:f>
@@ -4398,7 +3959,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -4499,7 +4060,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>data!$D$15</c:f>
@@ -4512,11 +4073,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4652,7 +4211,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4678,25 +4237,11 @@
         <c:axId val="897321104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4712,7 +4257,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4731,6 +4276,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.01"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4747,9 +4293,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0486393202825931"/>
-          <c:y val="0.841046104013724"/>
+          <c:y val="0.946139605925017"/>
           <c:w val="0.815612959447263"/>
-          <c:h val="0.147835870989739"/>
+          <c:h val="0.0427423534726909"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4765,7 +4311,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -10789,7 +10335,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10871,7 +10417,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8684054" cy="6292793"/>
+    <xdr:ext cx="8669769" cy="6283931"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11357,8 +10903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Presentations/LTERttImages/lineChartEachProfile.xlsx
+++ b/Presentations/LTERttImages/lineChartEachProfile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -189,15 +189,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -286,7 +408,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -328,7 +450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$5:$O$5</c:f>
+              <c:f>data!$F$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -398,7 +520,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -440,7 +562,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$6:$O$6</c:f>
+              <c:f>data!$F$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -510,7 +632,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -552,7 +674,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$7:$O$7</c:f>
+              <c:f>data!$F$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -622,7 +744,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -664,7 +786,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$8:$O$8</c:f>
+              <c:f>data!$F$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -734,7 +856,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -776,7 +898,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$9:$O$9</c:f>
+              <c:f>data!$F$9:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -846,7 +968,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -888,7 +1010,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$10:$O$10</c:f>
+              <c:f>data!$F$10:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -960,7 +1082,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1002,7 +1124,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$11:$O$11</c:f>
+              <c:f>data!$F$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1074,7 +1196,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1116,7 +1238,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$12:$O$12</c:f>
+              <c:f>data!$F$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1188,7 +1310,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1230,7 +1352,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$13:$O$13</c:f>
+              <c:f>data!$F$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1302,7 +1424,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1344,7 +1466,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$14:$O$14</c:f>
+              <c:f>data!$F$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1416,7 +1538,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1458,7 +1580,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$15:$O$15</c:f>
+              <c:f>data!$F$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1530,7 +1652,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1572,7 +1694,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$16:$O$16</c:f>
+              <c:f>data!$F$16:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1645,7 +1767,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1687,7 +1809,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$17:$O$17</c:f>
+              <c:f>data!$F$17:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1760,7 +1882,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1802,7 +1924,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$18:$O$18</c:f>
+              <c:f>data!$F$18:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1875,7 +1997,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1917,7 +2039,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$19:$O$19</c:f>
+              <c:f>data!$F$19:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1990,7 +2112,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2032,7 +2154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$20:$O$20</c:f>
+              <c:f>data!$F$20:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2105,7 +2227,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2147,7 +2269,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$21:$O$21</c:f>
+              <c:f>data!$F$21:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2220,7 +2342,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2262,7 +2384,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$22:$O$22</c:f>
+              <c:f>data!$F$22:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2334,7 +2456,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2376,7 +2498,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$23:$O$23</c:f>
+              <c:f>data!$F$23:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2448,7 +2570,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2490,7 +2612,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$24:$O$24</c:f>
+              <c:f>data!$F$24:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2562,7 +2684,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2604,7 +2726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$25:$O$25</c:f>
+              <c:f>data!$F$25:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2676,7 +2798,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2718,7 +2840,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$26:$O$26</c:f>
+              <c:f>data!$F$26:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2790,7 +2912,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2832,7 +2954,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$27:$O$27</c:f>
+              <c:f>data!$F$27:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2904,7 +3026,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2946,7 +3068,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$28:$O$28</c:f>
+              <c:f>data!$F$28:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3019,7 +3141,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3061,7 +3183,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$29:$O$29</c:f>
+              <c:f>data!$F$29:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3314,13 +3436,65 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="4000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>LTER Identification</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="4000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3329,7 +3503,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="4000"/>
-              <a:t>Concept Completeness in LTER Identification</a:t>
+              <a:t> Concept Completeness</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3347,13 +3521,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3408,41 +3596,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2006.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2007.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2008.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2009.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2010.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2011.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2012.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2013.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2014.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2015.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3450,41 +3641,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$8:$O$8</c:f>
+              <c:f>data!$E$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.704</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.768</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.592</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.444</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.46</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.32</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.812</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.908</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.948</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.568</c:v>
                 </c:pt>
               </c:numCache>
@@ -3520,41 +3714,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2006.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2007.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2008.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2009.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2010.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2011.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2012.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2013.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2014.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2015.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3562,41 +3759,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$9:$O$9</c:f>
+              <c:f>data!$E$9:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.657258064516129</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.484</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.736</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.384</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.456</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.34</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.224</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.408</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.804</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.464</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -3632,41 +3832,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2006.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2007.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2008.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2009.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2010.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2011.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2012.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2013.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2014.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2015.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3674,41 +3877,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$10:$O$10</c:f>
+              <c:f>data!$E$10:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.834677419354839</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.852</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.604</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.924</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.588</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.344</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.52</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.908</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.964</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.688</c:v>
                 </c:pt>
               </c:numCache>
@@ -3746,41 +3952,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2006.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2007.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2008.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2009.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2010.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2011.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2012.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2013.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2014.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2015.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3788,41 +3997,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$11:$O$11</c:f>
+              <c:f>data!$E$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.512096774193548</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.776</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.832</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.932</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.968</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.884</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.932</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.988</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.984</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.992</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.996</c:v>
                 </c:pt>
               </c:numCache>
@@ -3860,41 +4072,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2006.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2007.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2008.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2009.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2010.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2011.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2012.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2013.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2014.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2015.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3902,41 +4117,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$13:$O$13</c:f>
+              <c:f>data!$E$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.955645161290323</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.94</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.988</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.976</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.964</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.976</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.996</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3974,41 +4192,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2006.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2007.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2008.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2009.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2010.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2011.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2012.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2013.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2014.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2015.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4016,41 +4237,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$14:$O$14</c:f>
+              <c:f>data!$E$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.935483870967742</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.996</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.94</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.972</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.908</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.972</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.984</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4086,41 +4310,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$E$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2006.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2007.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2008.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2009.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2010.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2011.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2012.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2013.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2014.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2015.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4128,41 +4355,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$15:$O$15</c:f>
+              <c:f>data!$E$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.935483870967742</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.968</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.96</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.964</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.952</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.824</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.532</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.96</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.152</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.948</c:v>
                 </c:pt>
               </c:numCache>
@@ -4462,7 +4692,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4504,7 +4734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$16:$O$16</c:f>
+              <c:f>data!$F$16:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4574,7 +4804,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4616,7 +4846,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$17:$O$17</c:f>
+              <c:f>data!$F$17:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4686,7 +4916,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4728,7 +4958,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$18:$O$18</c:f>
+              <c:f>data!$F$18:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4798,7 +5028,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4840,7 +5070,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$19:$O$19</c:f>
+              <c:f>data!$F$19:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5174,7 +5404,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5216,7 +5446,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$20:$O$20</c:f>
+              <c:f>data!$F$20:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5286,7 +5516,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5328,7 +5558,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$21:$O$21</c:f>
+              <c:f>data!$F$21:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5398,7 +5628,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5440,7 +5670,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$22:$O$22</c:f>
+              <c:f>data!$F$22:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5510,7 +5740,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5552,7 +5782,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$23:$O$23</c:f>
+              <c:f>data!$F$23:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5622,7 +5852,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5664,7 +5894,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$24:$O$24</c:f>
+              <c:f>data!$F$24:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5999,7 +6229,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6041,7 +6271,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$25:$O$25</c:f>
+              <c:f>data!$F$25:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6111,7 +6341,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6153,7 +6383,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$26:$O$26</c:f>
+              <c:f>data!$F$26:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6487,7 +6717,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6529,7 +6759,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$27:$O$27</c:f>
+              <c:f>data!$F$27:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6599,7 +6829,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6641,7 +6871,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$28:$O$28</c:f>
+              <c:f>data!$F$28:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6711,7 +6941,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$4:$O$4</c:f>
+              <c:f>data!$F$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6753,7 +6983,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$29:$O$29</c:f>
+              <c:f>data!$F$29:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -10335,7 +10565,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="196" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10901,68 +11131,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:P29"/>
+  <dimension ref="D4:Q29"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E4">
+        <v>2005</v>
+      </c>
+      <c r="F4">
         <v>2006</v>
       </c>
-      <c r="F4">
-        <f>E4+1</f>
+      <c r="G4">
+        <f>F4+1</f>
         <v>2007</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:O4" si="0">F4+1</f>
+      <c r="H4">
+        <f t="shared" ref="H4:P4" si="0">G4+1</f>
         <v>2008</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="1">
@@ -10995,15 +11229,18 @@
       <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="1">
@@ -11036,15 +11273,18 @@
       <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="1">
@@ -11077,179 +11317,194 @@
       <c r="O7" s="1">
         <v>1</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.70399999999999996</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.76800000000000002</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.59199999999999997</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.44400000000000001</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.46</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.32</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>0.88</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>0.90800000000000003</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>0.94799999999999995</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
+        <v>0.657258064516129</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.48399999999999999</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.73599999999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.45600000000000002</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.34</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.224</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0.40799999999999997</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>0.80400000000000005</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>0.1</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>0.6</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
+        <v>0.83467741935483875</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.82</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.85199999999999998</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.60399999999999998</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.58799999999999997</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.34399999999999997</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>0.52</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>0.98</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>0.68799999999999994</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
+        <v>0.51209677419354838</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.83199999999999996</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>0.88</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0.96799999999999997</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.88400000000000001</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>0.996</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="1">
@@ -11282,529 +11537,568 @@
       <c r="O12" s="1">
         <v>1</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
+        <v>0.95564516129032262</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.94</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>0.996</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
+        <v>0.93548387096774188</v>
+      </c>
+      <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>0.996</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>0.94</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>0.90800000000000003</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>0.98399999999999999</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
+        <v>0.93548387096774188</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.96799999999999997</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>0.96</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>0.82399999999999995</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.9</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>0.96</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>0.9</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>0.152</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>0.94799999999999995</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>0.96</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>0.96</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>0.84399999999999997</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="F17" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.18</v>
-      </c>
-      <c r="G17" s="1">
-        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H17" s="1">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="I17" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J17" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>0.04</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>0.04</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="1">
-        <v>0.98799999999999999</v>
+      <c r="E18" s="2">
+        <v>0.93951612903225812</v>
       </c>
       <c r="F18" s="1">
         <v>0.98799999999999999</v>
       </c>
       <c r="G18" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>0.80400000000000005</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>0.90800000000000003</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>0.98</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>0.996</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>0.91200000000000003</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
+        <v>0.66129032258064513</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.71199999999999997</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>0.76</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>0.52800000000000002</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>0.432</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>0.34399999999999997</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>0.66400000000000003</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>0.40400000000000003</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>0.85599999999999998</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>0.60799999999999998</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
+        <v>0.96370967741935487</v>
+      </c>
+      <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>0.9</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>0.70399999999999996</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>0.624</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>0.996</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
+        <v>0.79032258064516125</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>0.83599999999999997</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>0.65200000000000002</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>0.51600000000000001</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>0.80800000000000005</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>0.88</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>0.79200000000000004</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>0.996</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>0.92800000000000005</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
+        <v>0.39919354838709675</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.252</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>0.628</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>0.432</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>0.54</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>0.27200000000000002</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>0.3</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>0.39600000000000002</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>0.84799999999999998</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>0.72</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>0.17199999999999999</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
+        <v>0.43951612903225806</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.54</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0.86</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>0.372</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>0.47599999999999998</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>0.86399999999999999</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>0.58799999999999997</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>0.51600000000000001</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
+        <v>0.52016129032258063</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>0.9</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>0.82</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>0.52400000000000002</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>0.86799999999999999</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>0.52</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
+        <v>0.36290322580645162</v>
+      </c>
+      <c r="F25" s="1">
         <v>0.68400000000000005</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>0.80400000000000005</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>0.72799999999999998</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>0.92</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -11815,171 +12109,186 @@
       <c r="O25" s="1">
         <v>1</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.76</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>0.876</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>0.61599999999999999</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>0.82</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>0.5</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>0.86799999999999999</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>0.52</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
+        <v>0.52016129032258063</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>0.9</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>0.82</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>0.52400000000000002</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>0.86799999999999999</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>0.52</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="F28" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>0.06</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
       </c>
       <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>0</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
+        <v>0.15322580645161291</v>
+      </c>
+      <c r="F29" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>0.112</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>0.27200000000000002</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>0.08</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>0.2</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>0.29199999999999998</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>0.04</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Presentations/LTERttImages/lineChartEachProfile.xlsx
+++ b/Presentations/LTERttImages/lineChartEachProfile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -4400,6 +4400,480 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resource Title</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$E$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resource Identifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$E$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Author / Originator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$E$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resource Contact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$E$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4522,10 +4996,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0486393202825931"/>
-          <c:y val="0.946139605925017"/>
-          <c:w val="0.815612959447263"/>
-          <c:h val="0.0427423534726909"/>
+          <c:x val="0.0544987992182952"/>
+          <c:y val="0.843067181991654"/>
+          <c:w val="0.945501200781705"/>
+          <c:h val="0.155919917007364"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10565,7 +11039,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="400" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
